--- a/miscellaneous/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/miscellaneous/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T20:17:25+00:00</t>
+    <t>2025-12-10T11:38:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/miscellaneous/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/miscellaneous/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2026.0.0-dev.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T11:38:15+00:00</t>
+    <t>2025-12-12T11:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/miscellaneous/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/miscellaneous/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T11:35:51+00:00</t>
+    <t>2025-12-12T15:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/miscellaneous/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/miscellaneous/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T15:07:24+00:00</t>
+    <t>2025-12-12T16:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
